--- a/JupyterNotebooks/AveragedIntensites/BrassA-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/BrassA-HW25.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="BrassA-HW25.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="BrassA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1208,6 +1208,56 @@
         <v>0.9965971036584613</v>
       </c>
     </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.085420576528351</v>
+      </c>
+      <c r="D16">
+        <v>0.9436809254642285</v>
+      </c>
+      <c r="E16">
+        <v>0.986338913977008</v>
+      </c>
+      <c r="F16">
+        <v>0.975497084934187</v>
+      </c>
+      <c r="G16">
+        <v>1.085420576528351</v>
+      </c>
+      <c r="H16">
+        <v>0.9436809254642285</v>
+      </c>
+      <c r="I16">
+        <v>1.013507860391305</v>
+      </c>
+      <c r="J16">
+        <v>0.962453540013901</v>
+      </c>
+      <c r="K16">
+        <v>1.023791702434834</v>
+      </c>
+      <c r="L16">
+        <v>0.9516332046643771</v>
+      </c>
+      <c r="M16">
+        <v>1.085420576528351</v>
+      </c>
+      <c r="N16">
+        <v>0.9650099197206183</v>
+      </c>
+      <c r="O16">
+        <v>0.9977343752259437</v>
+      </c>
+      <c r="P16">
+        <v>0.992790476051024</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JupyterNotebooks/AveragedIntensites/BrassA-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/BrassA-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -516,46 +519,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1213,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.085420576528351</v>

--- a/JupyterNotebooks/AveragedIntensites/BrassA-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/BrassA-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -458,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,46 +528,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -919,46 +928,46 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.8969480000000002</v>
+        <v>1.085420576528351</v>
       </c>
       <c r="D10">
-        <v>0.7726800000000016</v>
+        <v>0.9436809254642285</v>
       </c>
       <c r="E10">
-        <v>1.211807999999999</v>
+        <v>0.986338913977008</v>
       </c>
       <c r="F10">
-        <v>0.9403520000000002</v>
+        <v>0.975497084934187</v>
       </c>
       <c r="G10">
-        <v>0.8969480000000002</v>
+        <v>1.085420576528351</v>
       </c>
       <c r="H10">
-        <v>0.7726800000000016</v>
+        <v>0.9436809254642285</v>
       </c>
       <c r="I10">
-        <v>1.097607999999999</v>
+        <v>1.013507860391305</v>
       </c>
       <c r="J10">
-        <v>1.038947999999999</v>
+        <v>0.962453540013901</v>
       </c>
       <c r="K10">
-        <v>0.9683600000000006</v>
+        <v>1.023791702434834</v>
       </c>
       <c r="L10">
-        <v>0.8762999999999989</v>
+        <v>0.9516332046643771</v>
       </c>
       <c r="M10">
-        <v>0.8969480000000002</v>
+        <v>1.085420576528351</v>
       </c>
       <c r="N10">
-        <v>0.9922440000000003</v>
+        <v>0.9650099197206183</v>
       </c>
       <c r="O10">
-        <v>0.9554470000000003</v>
+        <v>0.9977343752259437</v>
       </c>
       <c r="P10">
-        <v>0.9753755</v>
+        <v>0.992790476051024</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -969,46 +978,46 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.96</v>
+        <v>1.060223973180004</v>
       </c>
       <c r="D11">
-        <v>0.53</v>
+        <v>0.8554390596845817</v>
       </c>
       <c r="E11">
-        <v>1.37</v>
+        <v>1.029087147232076</v>
       </c>
       <c r="F11">
-        <v>0.87</v>
+        <v>0.9690761713059198</v>
       </c>
       <c r="G11">
-        <v>0.96</v>
+        <v>1.060223973180004</v>
       </c>
       <c r="H11">
-        <v>0.53</v>
+        <v>0.8554390596845817</v>
       </c>
       <c r="I11">
-        <v>1.21</v>
+        <v>1.039363489602529</v>
       </c>
       <c r="J11">
-        <v>1.025962499999997</v>
+        <v>0.9738239194210393</v>
       </c>
       <c r="K11">
-        <v>0.99</v>
+        <v>1.02313933809295</v>
       </c>
       <c r="L11">
-        <v>0.72</v>
+        <v>0.9107500069952641</v>
       </c>
       <c r="M11">
-        <v>0.96</v>
+        <v>1.060223973180004</v>
       </c>
       <c r="N11">
-        <v>0.9500000000000001</v>
+        <v>0.9422631034583291</v>
       </c>
       <c r="O11">
-        <v>0.9325000000000001</v>
+        <v>0.9784565878506455</v>
       </c>
       <c r="P11">
-        <v>0.9594953124999998</v>
+        <v>0.9826128881892956</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1019,46 +1028,46 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9776814460927974</v>
+        <v>1.058037579436627</v>
       </c>
       <c r="D12">
-        <v>0.7236039903232024</v>
+        <v>0.8570081536378086</v>
       </c>
       <c r="E12">
-        <v>1.2101315629056</v>
+        <v>1.029149849972901</v>
       </c>
       <c r="F12">
-        <v>0.9229775804416026</v>
+        <v>0.9695497690206656</v>
       </c>
       <c r="G12">
-        <v>0.9776814460927974</v>
+        <v>1.058037579436627</v>
       </c>
       <c r="H12">
-        <v>0.7236039903232024</v>
+        <v>0.8570081536378086</v>
       </c>
       <c r="I12">
-        <v>1.117745667891196</v>
+        <v>1.038759582526452</v>
       </c>
       <c r="J12">
-        <v>1.010792811315193</v>
+        <v>0.9745227022647185</v>
       </c>
       <c r="K12">
-        <v>0.9926541283328028</v>
+        <v>1.022406277314573</v>
       </c>
       <c r="L12">
-        <v>0.8351458914304004</v>
+        <v>0.911997874409501</v>
       </c>
       <c r="M12">
-        <v>0.9776790691839974</v>
+        <v>1.058037579436627</v>
       </c>
       <c r="N12">
-        <v>0.9668677766144014</v>
+        <v>0.9430790018053548</v>
       </c>
       <c r="O12">
-        <v>0.9585986449408007</v>
+        <v>0.9784363380170007</v>
       </c>
       <c r="P12">
-        <v>0.9738416348415995</v>
+        <v>0.9826789735729059</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1069,46 +1078,46 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9954657859163153</v>
+        <v>1.059851375813614</v>
       </c>
       <c r="D13">
-        <v>0.9946426984781939</v>
+        <v>0.8558534750528169</v>
       </c>
       <c r="E13">
-        <v>0.9926040042299493</v>
+        <v>1.02895000138764</v>
       </c>
       <c r="F13">
-        <v>0.9933143444385427</v>
+        <v>0.9692219342567756</v>
       </c>
       <c r="G13">
-        <v>0.9954657859163153</v>
+        <v>1.059851375813614</v>
       </c>
       <c r="H13">
-        <v>0.9946426984781939</v>
+        <v>0.8558534750528169</v>
       </c>
       <c r="I13">
-        <v>0.9933958695919379</v>
+        <v>1.039169011503091</v>
       </c>
       <c r="J13">
-        <v>0.9936341623097674</v>
+        <v>0.9739366715468677</v>
       </c>
       <c r="K13">
-        <v>0.9940882974342137</v>
+        <v>1.022993049123258</v>
       </c>
       <c r="L13">
-        <v>0.9930312882925031</v>
+        <v>0.9110816282283328</v>
       </c>
       <c r="M13">
-        <v>0.9954573140957049</v>
+        <v>1.059851375813614</v>
       </c>
       <c r="N13">
-        <v>0.9936233513540715</v>
+        <v>0.9424017382202285</v>
       </c>
       <c r="O13">
-        <v>0.9940067082657503</v>
+        <v>0.9784691966277118</v>
       </c>
       <c r="P13">
-        <v>0.9937720563364278</v>
+        <v>0.9826321433640497</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1119,46 +1128,46 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9695898464352465</v>
+        <v>0.8969480000000002</v>
       </c>
       <c r="D14">
-        <v>0.9960400781831708</v>
+        <v>0.7726800000000016</v>
       </c>
       <c r="E14">
-        <v>1.004756862539783</v>
+        <v>1.211807999999999</v>
       </c>
       <c r="F14">
-        <v>0.9948983831330787</v>
+        <v>0.9403520000000002</v>
       </c>
       <c r="G14">
-        <v>0.9695898464352465</v>
+        <v>0.8969480000000002</v>
       </c>
       <c r="H14">
-        <v>0.9960400781831708</v>
+        <v>0.7726800000000016</v>
       </c>
       <c r="I14">
-        <v>0.9940099476001841</v>
+        <v>1.097607999999999</v>
       </c>
       <c r="J14">
-        <v>1.004051893565846</v>
+        <v>1.038947999999999</v>
       </c>
       <c r="K14">
-        <v>0.9873311808283504</v>
+        <v>0.9683600000000006</v>
       </c>
       <c r="L14">
-        <v>0.9969009270266295</v>
+        <v>0.8762999999999989</v>
       </c>
       <c r="M14">
-        <v>0.9695898464352465</v>
+        <v>0.8969480000000002</v>
       </c>
       <c r="N14">
-        <v>1.000398470361477</v>
+        <v>0.9922440000000003</v>
       </c>
       <c r="O14">
-        <v>0.9913212925728198</v>
+        <v>0.9554470000000003</v>
       </c>
       <c r="P14">
-        <v>0.9934473899140361</v>
+        <v>0.9753755</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1169,46 +1178,46 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9728325754911196</v>
+        <v>0.96</v>
       </c>
       <c r="D15">
-        <v>1.034135537007103</v>
+        <v>0.53</v>
       </c>
       <c r="E15">
-        <v>0.984185010272204</v>
+        <v>1.37</v>
       </c>
       <c r="F15">
-        <v>1.00119227830787</v>
+        <v>0.87</v>
       </c>
       <c r="G15">
-        <v>0.9728325754911196</v>
+        <v>0.96</v>
       </c>
       <c r="H15">
-        <v>1.034135537007103</v>
+        <v>0.53</v>
       </c>
       <c r="I15">
-        <v>0.9781234052084472</v>
+        <v>1.21</v>
       </c>
       <c r="J15">
-        <v>0.9985072133579688</v>
+        <v>1.025962499999997</v>
       </c>
       <c r="K15">
-        <v>0.9846227626898721</v>
+        <v>0.99</v>
       </c>
       <c r="L15">
-        <v>1.019178046933106</v>
+        <v>0.72</v>
       </c>
       <c r="M15">
-        <v>0.9728155426728395</v>
+        <v>0.96</v>
       </c>
       <c r="N15">
-        <v>1.009160273639653</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="O15">
-        <v>0.998086350269574</v>
+        <v>0.9325000000000001</v>
       </c>
       <c r="P15">
-        <v>0.9965971036584613</v>
+        <v>0.9594953124999998</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1219,46 +1228,196 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.085420576528351</v>
+        <v>0.9776814460927974</v>
       </c>
       <c r="D16">
-        <v>0.9436809254642285</v>
+        <v>0.7236039903232024</v>
       </c>
       <c r="E16">
-        <v>0.986338913977008</v>
+        <v>1.2101315629056</v>
       </c>
       <c r="F16">
-        <v>0.975497084934187</v>
+        <v>0.9229775804416026</v>
       </c>
       <c r="G16">
-        <v>1.085420576528351</v>
+        <v>0.9776814460927974</v>
       </c>
       <c r="H16">
-        <v>0.9436809254642285</v>
+        <v>0.7236039903232024</v>
       </c>
       <c r="I16">
-        <v>1.013507860391305</v>
+        <v>1.117745667891196</v>
       </c>
       <c r="J16">
-        <v>0.962453540013901</v>
+        <v>1.010792811315193</v>
       </c>
       <c r="K16">
-        <v>1.023791702434834</v>
+        <v>0.9926541283328028</v>
       </c>
       <c r="L16">
-        <v>0.9516332046643771</v>
+        <v>0.8351458914304004</v>
       </c>
       <c r="M16">
-        <v>1.085420576528351</v>
+        <v>0.9776790691839974</v>
       </c>
       <c r="N16">
-        <v>0.9650099197206183</v>
+        <v>0.9668677766144014</v>
       </c>
       <c r="O16">
-        <v>0.9977343752259437</v>
+        <v>0.9585986449408007</v>
       </c>
       <c r="P16">
-        <v>0.992790476051024</v>
+        <v>0.9738416348415995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9954657859163153</v>
+      </c>
+      <c r="D17">
+        <v>0.9946426984781939</v>
+      </c>
+      <c r="E17">
+        <v>0.9926040042299493</v>
+      </c>
+      <c r="F17">
+        <v>0.9933143444385427</v>
+      </c>
+      <c r="G17">
+        <v>0.9954657859163153</v>
+      </c>
+      <c r="H17">
+        <v>0.9946426984781939</v>
+      </c>
+      <c r="I17">
+        <v>0.9933958695919379</v>
+      </c>
+      <c r="J17">
+        <v>0.9936341623097674</v>
+      </c>
+      <c r="K17">
+        <v>0.9940882974342137</v>
+      </c>
+      <c r="L17">
+        <v>0.9930312882925031</v>
+      </c>
+      <c r="M17">
+        <v>0.9954573140957049</v>
+      </c>
+      <c r="N17">
+        <v>0.9936233513540715</v>
+      </c>
+      <c r="O17">
+        <v>0.9940067082657503</v>
+      </c>
+      <c r="P17">
+        <v>0.9937720563364278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9695898464352465</v>
+      </c>
+      <c r="D18">
+        <v>0.9960400781831708</v>
+      </c>
+      <c r="E18">
+        <v>1.004756862539783</v>
+      </c>
+      <c r="F18">
+        <v>0.9948983831330787</v>
+      </c>
+      <c r="G18">
+        <v>0.9695898464352465</v>
+      </c>
+      <c r="H18">
+        <v>0.9960400781831708</v>
+      </c>
+      <c r="I18">
+        <v>0.9940099476001841</v>
+      </c>
+      <c r="J18">
+        <v>1.004051893565846</v>
+      </c>
+      <c r="K18">
+        <v>0.9873311808283504</v>
+      </c>
+      <c r="L18">
+        <v>0.9969009270266295</v>
+      </c>
+      <c r="M18">
+        <v>0.9695898464352465</v>
+      </c>
+      <c r="N18">
+        <v>1.000398470361477</v>
+      </c>
+      <c r="O18">
+        <v>0.9913212925728198</v>
+      </c>
+      <c r="P18">
+        <v>0.9934473899140361</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9728325754911196</v>
+      </c>
+      <c r="D19">
+        <v>1.034135537007103</v>
+      </c>
+      <c r="E19">
+        <v>0.984185010272204</v>
+      </c>
+      <c r="F19">
+        <v>1.00119227830787</v>
+      </c>
+      <c r="G19">
+        <v>0.9728325754911196</v>
+      </c>
+      <c r="H19">
+        <v>1.034135537007103</v>
+      </c>
+      <c r="I19">
+        <v>0.9781234052084472</v>
+      </c>
+      <c r="J19">
+        <v>0.9985072133579688</v>
+      </c>
+      <c r="K19">
+        <v>0.9846227626898721</v>
+      </c>
+      <c r="L19">
+        <v>1.019178046933106</v>
+      </c>
+      <c r="M19">
+        <v>0.9728155426728395</v>
+      </c>
+      <c r="N19">
+        <v>1.009160273639653</v>
+      </c>
+      <c r="O19">
+        <v>0.998086350269574</v>
+      </c>
+      <c r="P19">
+        <v>0.9965971036584613</v>
       </c>
     </row>
   </sheetData>
